--- a/XHSJ/Assets/GameRoot/Config/excel/skillData.xlsx
+++ b/XHSJ/Assets/GameRoot/Config/excel/skillData.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="125725"/>
   <extLst>
@@ -21,8 +22,236 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>HuangJunShan HuangJunShan</author>
+  </authors>
+  <commentList>
+    <comment ref="J1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>HuangJunShan HuangJunShan:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+普通攻击附加额外的火焰伤害，或者使用火系魔法时有伤害加成</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>HuangJunShan HuangJunShan:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+普通攻击附加额外的冰冻伤害，或者使用冰系魔法时有伤害加成</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>HuangJunShan HuangJunShan:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+普通攻击附加额外的闪电伤害，或者使用电系魔法时有伤害加成</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>HuangJunShan HuangJunShan:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+普通攻击附加额外的毒素伤害，或者使用毒系魔法时有伤害加成</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>HuangJunShan HuangJunShan</author>
+  </authors>
+  <commentList>
+    <comment ref="J1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>HuangJunShan HuangJunShan:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+普通攻击附加额外的火焰伤害，或者使用火系魔法时有伤害加成</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>HuangJunShan HuangJunShan:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+普通攻击附加额外的冰冻伤害，或者使用冰系魔法时有伤害加成</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>HuangJunShan HuangJunShan:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+普通攻击附加额外的闪电伤害，或者使用电系魔法时有伤害加成</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>HuangJunShan HuangJunShan:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+普通攻击附加额外的毒素伤害，或者使用毒系魔法时有伤害加成</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="128">
   <si>
     <t>ID</t>
   </si>
@@ -72,10 +301,6 @@
   </si>
   <si>
     <t>火魔</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>冰锤</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -161,15 +386,35 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>将火元素凝聚成型召唤出火魔，攻击敌人可造成120%火焰伤害，并燃烧敌人</t>
+    <t>重击</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>疾风删</t>
+    <t>半月斩</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>重击</t>
+    <t>光愈</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>将光元素凝聚成光球，注入友方体力，治愈受到的伤害，根据魔力80%恢复生命。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>火环</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>暴风雪</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>水盾</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>光精灵</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -180,7 +425,504 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>快速砍向敌人，造成</t>
+      <t>凝聚火元素，向四周爆开，对周围敌人造成</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>50%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>火焰伤害并阵晕敌人</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>秒。</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>回旋斩</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>挥舞武器攻向身前敌人，对前方敌人造成</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>120%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>物理伤害并击退敌人，并施加</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>破甲。</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>将前方冰元素凝聚成冰块，砸向前方区域，对敌人造成50%物理伤害和5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>0%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>冰冻伤害，并附加</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>迟缓。</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>将火元素凝聚成型召唤出火魔，攻击敌人可造成120%火焰伤害，并燃烧敌人，持续30秒。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>爆炎枪</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>将火元素凝聚成枪射向敌人，对敌人造成700%火焰伤害，根据目标剩余生命最多可额外提高50%伤害。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>火焰陷阱</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>狂魔乱舞</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>拔刀斩</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>拔出武器以极快的速度斩向敌人，对前方敌人造成470%物理伤害，并且打断目标技能的冷却时间。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>水镜术</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>凝聚水元素在周身形成屏障，扭曲光线折射，进入隐身状态，让他人无法发现自己，持续120秒。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>attackAngle</t>
+  </si>
+  <si>
+    <t>Client</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>damage</t>
+  </si>
+  <si>
+    <t>fireDamage</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>ice</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Damage</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>electricity</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Damage</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>poison</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Damage</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>durationTime</t>
+  </si>
+  <si>
+    <t>damageInterval</t>
+  </si>
+  <si>
+    <t>nextSkillId</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>prefabName</t>
+  </si>
+  <si>
+    <t>animationName</t>
+  </si>
+  <si>
+    <t>hitFxName</t>
+  </si>
+  <si>
+    <t>attackType</t>
+  </si>
+  <si>
+    <t>damageMode</t>
+  </si>
+  <si>
+    <t>疾风斩</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰锥</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰锤术</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Client</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能名称</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>秒数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>冷却时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>消耗魔法</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>距离</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击角度</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：武技</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：法术</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>火焰伤害</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰冻伤害</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>闪电伤害</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>毒素伤害</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>持续时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>伤害间隔</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>下一个技能id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>播放动画名称</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>受击特效预制件</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能预制件</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击数量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Single</t>
+  </si>
+  <si>
+    <t>单体</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>群攻</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Group</t>
+  </si>
+  <si>
+    <t>圆形</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sector</t>
+  </si>
+  <si>
+    <t>扇形</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>投射物</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Projectile</t>
+  </si>
+  <si>
+    <t>物理伤害或技能威力</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SummonId</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>召唤出来的对象的id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillEffect/effect_skill1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillEffect/effect_skill2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillEffect/effect_skill3</t>
+  </si>
+  <si>
+    <t>SkillEffect/effect_skill4</t>
+  </si>
+  <si>
+    <t>SkillEffect/effect_skill5</t>
+  </si>
+  <si>
+    <t>SkillEffect/effect_skill6</t>
+  </si>
+  <si>
+    <t>SkillEffect/effect_skill7</t>
+  </si>
+  <si>
+    <t>SkillEffect/effect_skill8</t>
+  </si>
+  <si>
+    <t>SkillEffect/effect_skill9</t>
+  </si>
+  <si>
+    <t>SkillEffect/effect_skill10</t>
+  </si>
+  <si>
+    <t>SkillEffect/effect_skill11</t>
+  </si>
+  <si>
+    <t>SkillEffect/effect_skill12</t>
+  </si>
+  <si>
+    <t>SkillEffect/effect_skill13</t>
+  </si>
+  <si>
+    <t>SkillEffect/effect_skill14</t>
+  </si>
+  <si>
+    <t>SkillEffect/effect_skill15</t>
+  </si>
+  <si>
+    <t>SkillEffect/effect_skill16</t>
+  </si>
+  <si>
+    <t>SkillEffect/effect_skill17</t>
+  </si>
+  <si>
+    <r>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>tk1</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>skill</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill1</t>
+  </si>
+  <si>
+    <t>SkillEffect/effect_hit</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>快速砍向敌人，对单一目标造成</t>
     </r>
     <r>
       <rPr>
@@ -253,6 +995,52 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>挥舞武器斩向前方敌人，对前方敌人造成250%物理伤害并击退敌人，并施加流血。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sector</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Circle</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>None</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>N</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>one</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>伤害模式</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无影响</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillEffect/effect_skill1001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰块</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -277,15 +1065,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>物理伤害，有额外</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>50%</t>
+      <t>物理伤害</t>
     </r>
     <r>
       <rPr>
@@ -294,12 +1074,28 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>机会造成会心一击。</t>
+      <t>。</t>
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>半月斩</t>
+    <t>将光元素凝聚成型召唤出光精灵，持续恢复队友生命，每0.5秒根据魔力10%恢复生命，持续5秒。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>将火元素凝聚并注入地下，敌人经过时爆炸并造成200%火焰伤害，最多存在60秒。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>凝聚水元素在周围形成屏障，阻挡受到的攻击，吸收150%伤害后破碎，最多存在60秒。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>地雷</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Landmine</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -310,7 +1106,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>挥舞武器攻向身前敌人，对前方敌人造成</t>
+      <t>挥舞武器斩向前方敌人，对前方敌人造成</t>
     </r>
     <r>
       <rPr>
@@ -318,7 +1114,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>120%</t>
+      <t>260%</t>
     </r>
     <r>
       <rPr>
@@ -327,15 +1123,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>攻击并击退敌人，并施加</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>6</t>
+      <t>物理伤害</t>
     </r>
     <r>
       <rPr>
@@ -344,124 +1132,37 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>秒破甲。</t>
+      <t>。</t>
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>光愈</t>
+    <t>炸弹</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>将光元素凝聚成光球，注入友方体力，治愈受到的伤害，根据魔力80%恢复生命。</t>
+    <t>掉落物</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>火环</t>
+    <t>Drop</t>
+  </si>
+  <si>
+    <t>Drop</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>凝聚火元素，向四周爆开，对周围敌人造成</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>50%</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>伤害并阵晕敌人</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>0.5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>秒。</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>SkillEffect/effect_skill1002</t>
   </si>
   <si>
-    <t>暴风雪</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>将前方冰元素凝聚成冰块，砸向前方区域，对敌人造成</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>100%</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>伤害，并附加</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>秒迟缓。</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>SkillEffect/effect_skill1003</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -496,13 +1197,52 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF333333"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -517,7 +1257,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -532,6 +1272,30 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -806,21 +1570,40 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F4827"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:V4827"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <pane xSplit="3" topLeftCell="H1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="N23" sqref="N23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="92.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="108.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="16.5">
+    <row r="1" spans="1:22" ht="16.5">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -831,16 +1614,64 @@
         <v>3</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="16.5">
+      <c r="G1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="I1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="N1" t="s">
+        <v>39</v>
+      </c>
+      <c r="O1" t="s">
+        <v>40</v>
+      </c>
+      <c r="P1" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>42</v>
+      </c>
+      <c r="R1" t="s">
+        <v>43</v>
+      </c>
+      <c r="S1" t="s">
+        <v>44</v>
+      </c>
+      <c r="T1" t="s">
+        <v>45</v>
+      </c>
+      <c r="U1" t="s">
+        <v>46</v>
+      </c>
+      <c r="V1" s="8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" ht="16.5">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -850,10 +1681,67 @@
       <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="D2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="O2" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="P2" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q2" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="R2" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="S2" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="T2" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="U2" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="V2" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22">
       <c r="A3" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>4</v>
@@ -870,36 +1758,126 @@
       <c r="F3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" s="1" customFormat="1">
-      <c r="A4" s="4">
+      <c r="G3">
+        <v>30</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>80</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0.1</v>
+      </c>
+      <c r="O3">
+        <v>0.06</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="R3" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="S3" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" s="12" customFormat="1">
+      <c r="A4" s="10">
+        <v>2</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="12">
+        <v>5</v>
+      </c>
+      <c r="E4" s="12">
+        <v>5</v>
+      </c>
+      <c r="F4" s="12">
+        <v>0</v>
+      </c>
+      <c r="G4" s="12">
+        <v>90</v>
+      </c>
+      <c r="H4" s="12">
         <v>1</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="1">
-        <v>5</v>
-      </c>
-      <c r="E4" s="1">
-        <v>5</v>
-      </c>
-      <c r="F4" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" s="1" customFormat="1">
+      <c r="I4" s="12">
+        <v>80</v>
+      </c>
+      <c r="J4" s="12">
+        <v>0</v>
+      </c>
+      <c r="K4" s="12">
+        <v>30</v>
+      </c>
+      <c r="L4" s="12">
+        <v>0</v>
+      </c>
+      <c r="M4" s="12">
+        <v>0</v>
+      </c>
+      <c r="N4" s="1">
+        <v>0.15</v>
+      </c>
+      <c r="O4" s="1">
+        <v>0.06</v>
+      </c>
+      <c r="P4" s="12">
+        <v>1001</v>
+      </c>
+      <c r="Q4" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="R4" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="S4" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="U4" s="8" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" s="1" customFormat="1">
       <c r="A5" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="D5" s="1">
         <v>30</v>
@@ -910,36 +1888,126 @@
       <c r="F5" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="3">
-        <v>3</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="1">
+      <c r="G5" s="1">
+        <v>180</v>
+      </c>
+      <c r="H5" s="1">
+        <v>1</v>
+      </c>
+      <c r="I5" s="1">
+        <v>0</v>
+      </c>
+      <c r="J5" s="1">
+        <v>120</v>
+      </c>
+      <c r="K5" s="1">
+        <v>0</v>
+      </c>
+      <c r="L5" s="1">
+        <v>0</v>
+      </c>
+      <c r="M5" s="1">
+        <v>0</v>
+      </c>
+      <c r="N5" s="1">
+        <v>30.1</v>
+      </c>
+      <c r="O5" s="1">
+        <v>60</v>
+      </c>
+      <c r="P5" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="S5" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="T5" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="U5" s="8" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" s="12" customFormat="1">
+      <c r="A6" s="10">
+        <v>4</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="D6" s="12">
         <v>8</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="12">
         <v>8</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="3">
-        <v>4</v>
+      <c r="G6" s="12">
+        <v>50</v>
+      </c>
+      <c r="H6" s="12">
+        <v>0</v>
+      </c>
+      <c r="I6" s="12">
+        <v>140</v>
+      </c>
+      <c r="J6" s="12">
+        <v>0</v>
+      </c>
+      <c r="K6" s="12">
+        <v>0</v>
+      </c>
+      <c r="L6" s="12">
+        <v>0</v>
+      </c>
+      <c r="M6" s="12">
+        <v>0</v>
+      </c>
+      <c r="N6" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="O6" s="1">
+        <v>0.06</v>
+      </c>
+      <c r="P6" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="R6" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="S6" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="T6" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="U6" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22">
+      <c r="A7" s="4">
+        <v>5</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>16</v>
+        <v>115</v>
       </c>
       <c r="D7" s="1">
         <v>8</v>
@@ -950,36 +2018,126 @@
       <c r="F7" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="3">
-        <v>5</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="1">
+      <c r="G7" s="1">
+        <v>50</v>
+      </c>
+      <c r="H7" s="1">
+        <v>0</v>
+      </c>
+      <c r="I7" s="1">
+        <v>210</v>
+      </c>
+      <c r="J7" s="1">
+        <v>0</v>
+      </c>
+      <c r="K7" s="1">
+        <v>0</v>
+      </c>
+      <c r="L7" s="1">
+        <v>0</v>
+      </c>
+      <c r="M7" s="1">
+        <v>0</v>
+      </c>
+      <c r="N7" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="O7" s="1">
+        <v>0.06</v>
+      </c>
+      <c r="P7" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="R7" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="S7" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="T7" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="U7" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" s="12" customFormat="1">
+      <c r="A8" s="10">
+        <v>6</v>
+      </c>
+      <c r="B8" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="1">
+      <c r="C8" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="12">
         <v>12</v>
       </c>
-      <c r="F8" s="1">
+      <c r="E8" s="12">
+        <v>12</v>
+      </c>
+      <c r="F8" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="3">
-        <v>6</v>
+      <c r="G8" s="12">
+        <v>50</v>
+      </c>
+      <c r="H8" s="12">
+        <v>0</v>
+      </c>
+      <c r="I8" s="12">
+        <v>120</v>
+      </c>
+      <c r="J8" s="12">
+        <v>0</v>
+      </c>
+      <c r="K8" s="12">
+        <v>0</v>
+      </c>
+      <c r="L8" s="12">
+        <v>0</v>
+      </c>
+      <c r="M8" s="12">
+        <v>0</v>
+      </c>
+      <c r="N8" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="O8" s="1">
+        <v>0.06</v>
+      </c>
+      <c r="P8" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="R8" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="S8" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="T8" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="U8" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22">
+      <c r="A9" s="4">
+        <v>7</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D9" s="1">
         <v>6.5</v>
@@ -990,36 +2148,126 @@
       <c r="F9" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="3">
-        <v>7</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" s="4" t="s">
+      <c r="G9" s="1">
+        <v>180</v>
+      </c>
+      <c r="H9" s="1">
+        <v>1</v>
+      </c>
+      <c r="I9" s="1">
+        <v>80</v>
+      </c>
+      <c r="J9" s="1">
+        <v>0</v>
+      </c>
+      <c r="K9" s="1">
+        <v>0</v>
+      </c>
+      <c r="L9" s="1">
+        <v>0</v>
+      </c>
+      <c r="M9" s="1">
+        <v>0</v>
+      </c>
+      <c r="N9" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="O9" s="1">
+        <v>0.06</v>
+      </c>
+      <c r="P9" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="R9" t="s">
+        <v>103</v>
+      </c>
+      <c r="S9" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="T9" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="U9" s="8" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" s="12" customFormat="1">
+      <c r="A10" s="10">
+        <v>8</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="12">
+        <v>8</v>
+      </c>
+      <c r="E10" s="12">
+        <v>8</v>
+      </c>
+      <c r="F10" s="12">
+        <v>5</v>
+      </c>
+      <c r="G10" s="12">
+        <v>180</v>
+      </c>
+      <c r="H10" s="12">
+        <v>1</v>
+      </c>
+      <c r="I10" s="12">
+        <v>50</v>
+      </c>
+      <c r="J10" s="12">
+        <v>50</v>
+      </c>
+      <c r="K10" s="12">
+        <v>0</v>
+      </c>
+      <c r="L10" s="12">
+        <v>0</v>
+      </c>
+      <c r="M10" s="12">
+        <v>0</v>
+      </c>
+      <c r="N10" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="O10" s="1">
+        <v>0.06</v>
+      </c>
+      <c r="P10" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="R10" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="S10" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="T10" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="U10" s="8" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22">
+      <c r="A11" s="4">
+        <v>9</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>22</v>
-      </c>
-      <c r="D10" s="1">
-        <v>8</v>
-      </c>
-      <c r="E10" s="1">
-        <v>8</v>
-      </c>
-      <c r="F10" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="3">
-        <v>8</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>24</v>
       </c>
       <c r="D11" s="1">
         <v>8.5</v>
@@ -1030,188 +2278,890 @@
       <c r="F11" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-    </row>
-    <row r="23" spans="1:3">
+      <c r="G11" s="1">
+        <v>180</v>
+      </c>
+      <c r="H11" s="1">
+        <v>1</v>
+      </c>
+      <c r="I11" s="1">
+        <v>50</v>
+      </c>
+      <c r="J11" s="1">
+        <v>0</v>
+      </c>
+      <c r="K11" s="1">
+        <v>50</v>
+      </c>
+      <c r="L11" s="1">
+        <v>0</v>
+      </c>
+      <c r="M11" s="1">
+        <v>0</v>
+      </c>
+      <c r="N11" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="O11" s="1">
+        <v>0.06</v>
+      </c>
+      <c r="P11" s="1">
+        <v>1002</v>
+      </c>
+      <c r="Q11" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="R11" t="s">
+        <v>103</v>
+      </c>
+      <c r="S11" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="T11" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="U11" s="8" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" s="12" customFormat="1">
+      <c r="A12" s="10">
+        <v>10</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="D12" s="12">
+        <v>30</v>
+      </c>
+      <c r="E12" s="12">
+        <v>20</v>
+      </c>
+      <c r="F12" s="12">
+        <v>0</v>
+      </c>
+      <c r="G12" s="12">
+        <v>180</v>
+      </c>
+      <c r="H12" s="12">
+        <v>1</v>
+      </c>
+      <c r="I12" s="12">
+        <v>150</v>
+      </c>
+      <c r="J12" s="12">
+        <v>0</v>
+      </c>
+      <c r="K12" s="12">
+        <v>0</v>
+      </c>
+      <c r="L12" s="12">
+        <v>0</v>
+      </c>
+      <c r="M12" s="12">
+        <v>0</v>
+      </c>
+      <c r="N12" s="1">
+        <v>60.1</v>
+      </c>
+      <c r="O12" s="1">
+        <v>120</v>
+      </c>
+      <c r="P12" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="R12" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="S12" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="T12" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="U12" s="8" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22">
+      <c r="A13" s="4">
+        <v>11</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="D13" s="1">
+        <v>15</v>
+      </c>
+      <c r="E13" s="1">
+        <v>12</v>
+      </c>
+      <c r="F13" s="1">
+        <v>5</v>
+      </c>
+      <c r="G13" s="1">
+        <v>180</v>
+      </c>
+      <c r="H13" s="1">
+        <v>1</v>
+      </c>
+      <c r="I13" s="1">
+        <v>5</v>
+      </c>
+      <c r="J13" s="1">
+        <v>0</v>
+      </c>
+      <c r="K13" s="1">
+        <v>0</v>
+      </c>
+      <c r="L13" s="1">
+        <v>0</v>
+      </c>
+      <c r="M13" s="1">
+        <v>0</v>
+      </c>
+      <c r="N13" s="1">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="O13" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="P13" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="R13" t="s">
+        <v>103</v>
+      </c>
+      <c r="S13" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="T13" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="U13" s="8" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" s="12" customFormat="1">
+      <c r="A14" s="10">
+        <v>12</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="D14" s="12">
+        <v>9</v>
+      </c>
+      <c r="E14" s="12">
+        <v>9</v>
+      </c>
+      <c r="F14" s="12">
+        <v>0</v>
+      </c>
+      <c r="G14" s="12">
+        <v>50</v>
+      </c>
+      <c r="H14" s="12">
+        <v>0</v>
+      </c>
+      <c r="I14" s="12">
+        <v>250</v>
+      </c>
+      <c r="J14" s="12">
+        <v>0</v>
+      </c>
+      <c r="K14" s="12">
+        <v>0</v>
+      </c>
+      <c r="L14" s="12">
+        <v>0</v>
+      </c>
+      <c r="M14" s="12">
+        <v>0</v>
+      </c>
+      <c r="N14" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="O14" s="1">
+        <v>0.06</v>
+      </c>
+      <c r="P14" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="R14" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="S14" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="T14" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="U14" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22">
+      <c r="A15" s="4">
+        <v>13</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" s="1">
+        <v>10</v>
+      </c>
+      <c r="E15" s="1">
+        <v>11</v>
+      </c>
+      <c r="F15" s="1">
+        <v>10</v>
+      </c>
+      <c r="G15" s="1">
+        <v>90</v>
+      </c>
+      <c r="H15" s="1">
+        <v>1</v>
+      </c>
+      <c r="I15" s="1">
+        <v>0</v>
+      </c>
+      <c r="J15" s="1">
+        <v>700</v>
+      </c>
+      <c r="K15" s="1">
+        <v>0</v>
+      </c>
+      <c r="L15" s="1">
+        <v>0</v>
+      </c>
+      <c r="M15" s="1">
+        <v>0</v>
+      </c>
+      <c r="N15" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="O15" s="1">
+        <v>0.06</v>
+      </c>
+      <c r="P15" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="R15" t="s">
+        <v>103</v>
+      </c>
+      <c r="S15" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="T15" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="U15" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" s="12" customFormat="1">
+      <c r="A16" s="10">
+        <v>14</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="D16" s="12">
+        <v>6</v>
+      </c>
+      <c r="E16" s="12">
+        <v>12</v>
+      </c>
+      <c r="F16" s="12">
+        <v>0</v>
+      </c>
+      <c r="G16" s="12">
+        <v>180</v>
+      </c>
+      <c r="H16" s="12">
+        <v>1</v>
+      </c>
+      <c r="I16" s="12">
+        <v>0</v>
+      </c>
+      <c r="J16" s="12">
+        <v>200</v>
+      </c>
+      <c r="K16" s="12">
+        <v>0</v>
+      </c>
+      <c r="L16" s="12">
+        <v>0</v>
+      </c>
+      <c r="M16" s="12">
+        <v>0</v>
+      </c>
+      <c r="N16" s="1">
+        <v>60.1</v>
+      </c>
+      <c r="O16" s="1">
+        <v>120</v>
+      </c>
+      <c r="P16" s="12">
+        <v>1003</v>
+      </c>
+      <c r="Q16" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="R16" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="S16" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="T16" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="U16" s="8" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21">
+      <c r="A17" s="4">
+        <v>15</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="D17" s="1">
+        <v>5</v>
+      </c>
+      <c r="E17" s="1">
+        <v>12</v>
+      </c>
+      <c r="F17" s="1">
+        <v>0</v>
+      </c>
+      <c r="G17" s="1">
+        <v>50</v>
+      </c>
+      <c r="H17" s="1">
+        <v>0</v>
+      </c>
+      <c r="I17" s="1">
+        <v>260</v>
+      </c>
+      <c r="J17" s="1">
+        <v>0</v>
+      </c>
+      <c r="K17" s="1">
+        <v>0</v>
+      </c>
+      <c r="L17" s="1">
+        <v>0</v>
+      </c>
+      <c r="M17" s="1">
+        <v>0</v>
+      </c>
+      <c r="N17" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="O17" s="1">
+        <v>0.06</v>
+      </c>
+      <c r="P17" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="R17" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="S17" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="T17" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="U17" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" s="12" customFormat="1">
+      <c r="A18" s="10">
+        <v>16</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D18" s="12">
+        <v>13</v>
+      </c>
+      <c r="E18" s="12">
+        <v>20</v>
+      </c>
+      <c r="F18" s="12">
+        <v>0</v>
+      </c>
+      <c r="G18" s="12">
+        <v>50</v>
+      </c>
+      <c r="H18" s="12">
+        <v>0</v>
+      </c>
+      <c r="I18" s="12">
+        <v>470</v>
+      </c>
+      <c r="J18" s="12">
+        <v>0</v>
+      </c>
+      <c r="K18" s="12">
+        <v>0</v>
+      </c>
+      <c r="L18" s="12">
+        <v>0</v>
+      </c>
+      <c r="M18" s="12">
+        <v>0</v>
+      </c>
+      <c r="N18" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="O18" s="1">
+        <v>0.06</v>
+      </c>
+      <c r="P18" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="R18" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="S18" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="T18" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="U18" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21">
+      <c r="A19" s="4">
+        <v>17</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D19" s="1">
+        <v>20</v>
+      </c>
+      <c r="E19" s="1">
+        <v>20</v>
+      </c>
+      <c r="F19" s="1">
+        <v>0</v>
+      </c>
+      <c r="G19" s="1">
+        <v>180</v>
+      </c>
+      <c r="H19" s="1">
+        <v>1</v>
+      </c>
+      <c r="I19" s="1">
+        <v>100</v>
+      </c>
+      <c r="J19" s="1">
+        <v>0</v>
+      </c>
+      <c r="K19" s="1">
+        <v>0</v>
+      </c>
+      <c r="L19" s="1">
+        <v>0</v>
+      </c>
+      <c r="M19" s="1">
+        <v>0</v>
+      </c>
+      <c r="N19" s="1">
+        <v>120.1</v>
+      </c>
+      <c r="O19" s="1">
+        <v>240</v>
+      </c>
+      <c r="P19" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="R19" t="s">
+        <v>103</v>
+      </c>
+      <c r="S19" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="T19" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="U19" s="8" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" s="12" customFormat="1">
+      <c r="A20" s="13">
+        <v>1001</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C20" s="13"/>
+      <c r="D20" s="12">
+        <v>0</v>
+      </c>
+      <c r="E20" s="12">
+        <v>0</v>
+      </c>
+      <c r="F20" s="12">
+        <v>8</v>
+      </c>
+      <c r="G20" s="12">
+        <v>90</v>
+      </c>
+      <c r="H20" s="12">
+        <v>1</v>
+      </c>
+      <c r="I20" s="12">
+        <v>80</v>
+      </c>
+      <c r="J20" s="12">
+        <v>0</v>
+      </c>
+      <c r="K20" s="12">
+        <v>30</v>
+      </c>
+      <c r="L20" s="12">
+        <v>0</v>
+      </c>
+      <c r="M20" s="12">
+        <v>0</v>
+      </c>
+      <c r="N20" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="O20" s="1">
+        <v>0.06</v>
+      </c>
+      <c r="P20" s="12">
+        <v>1001</v>
+      </c>
+      <c r="Q20" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="R20" s="14"/>
+      <c r="S20" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="T20" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="U20" s="18" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" s="18" customFormat="1">
+      <c r="A21" s="16">
+        <v>1002</v>
+      </c>
+      <c r="B21" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="C21" s="16"/>
+      <c r="D21" s="18">
+        <v>0</v>
+      </c>
+      <c r="E21" s="18">
+        <v>0</v>
+      </c>
+      <c r="F21" s="18">
+        <v>1</v>
+      </c>
+      <c r="G21" s="18">
+        <v>360</v>
+      </c>
+      <c r="H21" s="18">
+        <v>1</v>
+      </c>
+      <c r="I21" s="18">
+        <v>50</v>
+      </c>
+      <c r="J21" s="18">
+        <v>0</v>
+      </c>
+      <c r="K21" s="18">
+        <v>50</v>
+      </c>
+      <c r="L21" s="18">
+        <v>0</v>
+      </c>
+      <c r="M21" s="18">
+        <v>0</v>
+      </c>
+      <c r="N21" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="O21" s="1">
+        <v>0.06</v>
+      </c>
+      <c r="P21" s="18">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="S21" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="T21" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="U21" s="19" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" s="12" customFormat="1">
+      <c r="A22" s="13">
+        <v>1003</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="C22" s="13"/>
+      <c r="D22" s="12">
+        <v>0</v>
+      </c>
+      <c r="E22" s="12">
+        <v>0</v>
+      </c>
+      <c r="F22" s="12">
+        <v>3</v>
+      </c>
+      <c r="G22" s="12">
+        <v>180</v>
+      </c>
+      <c r="H22" s="12">
+        <v>1</v>
+      </c>
+      <c r="I22" s="12">
+        <v>0</v>
+      </c>
+      <c r="J22" s="12">
+        <v>200</v>
+      </c>
+      <c r="K22" s="12">
+        <v>0</v>
+      </c>
+      <c r="L22" s="12">
+        <v>0</v>
+      </c>
+      <c r="M22" s="12">
+        <v>0</v>
+      </c>
+      <c r="N22" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="O22" s="12">
+        <v>0.06</v>
+      </c>
+      <c r="P22" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="S22" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="T22" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="U22" s="8" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:21">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:21">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
-    </row>
-    <row r="26" spans="1:3">
+      <c r="U25" s="6"/>
+    </row>
+    <row r="26" spans="1:21">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
-    </row>
-    <row r="27" spans="1:3">
+      <c r="U26" s="8"/>
+    </row>
+    <row r="27" spans="1:21">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
-    </row>
-    <row r="28" spans="1:3">
+      <c r="U27" s="1"/>
+    </row>
+    <row r="28" spans="1:21">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
-    </row>
-    <row r="29" spans="1:3">
+      <c r="U28" s="6"/>
+    </row>
+    <row r="29" spans="1:21">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
-    </row>
-    <row r="30" spans="1:3">
+      <c r="U29" s="8"/>
+    </row>
+    <row r="30" spans="1:21">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
-    </row>
-    <row r="31" spans="1:3">
+      <c r="U30" s="1"/>
+    </row>
+    <row r="31" spans="1:21">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
-    </row>
-    <row r="32" spans="1:3">
+      <c r="U31" s="6"/>
+    </row>
+    <row r="32" spans="1:21">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
-    </row>
-    <row r="33" spans="1:3">
+      <c r="U32" s="1"/>
+    </row>
+    <row r="33" spans="1:21">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
-    </row>
-    <row r="34" spans="1:3">
+      <c r="U33" s="1"/>
+    </row>
+    <row r="34" spans="1:21">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
-    </row>
-    <row r="35" spans="1:3">
+      <c r="U34" s="6"/>
+    </row>
+    <row r="35" spans="1:21">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
-    </row>
-    <row r="36" spans="1:3">
+      <c r="U35" s="8"/>
+    </row>
+    <row r="36" spans="1:21">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:21">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:21">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:21">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:21">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:21">
       <c r="A41" s="3"/>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:21">
       <c r="A42" s="3"/>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:21">
       <c r="A43" s="3"/>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:21">
       <c r="A44" s="3"/>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:21">
       <c r="A45" s="3"/>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:21">
       <c r="A46" s="3"/>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:21">
       <c r="A47" s="3"/>
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:21">
       <c r="A48" s="3"/>
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
@@ -25115,5 +27065,260 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:V20"/>
+  <sheetViews>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="U20" sqref="U20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="4.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="22.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" s="1" customFormat="1" ht="16.5">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="P1" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="V1" s="8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22">
+      <c r="B2" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="O2" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="P2" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q2" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="R2" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="S2" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="T2" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="U2" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="V2" s="6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22">
+      <c r="H3" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="T3" s="8"/>
+    </row>
+    <row r="4" spans="1:22">
+      <c r="H4" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="T4" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="U4" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22">
+      <c r="T5" t="s">
+        <v>72</v>
+      </c>
+      <c r="U5" s="8" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22">
+      <c r="T7" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="U7" s="6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22">
+      <c r="T8" t="s">
+        <v>75</v>
+      </c>
+      <c r="U8" s="8" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22">
+      <c r="U10" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22">
+      <c r="U11" s="8" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22">
+      <c r="U13" s="6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22">
+      <c r="U14" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22">
+      <c r="U16" s="6" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="17" spans="21:21" ht="15.75">
+      <c r="U17" s="15" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="19" spans="21:21">
+      <c r="U19" s="6" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="20" spans="21:21" ht="18.75">
+      <c r="U20" s="9" t="s">
+        <v>124</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/XHSJ/Assets/GameRoot/Config/excel/skillData.xlsx
+++ b/XHSJ/Assets/GameRoot/Config/excel/skillData.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="28940" windowHeight="12910"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
     <author>HuangJunShan HuangJunShan</author>
   </authors>
   <commentList>
-    <comment ref="J1" authorId="0">
+    <comment ref="K1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -54,7 +54,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="0">
+    <comment ref="L1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -80,7 +80,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L1" authorId="0">
+    <comment ref="M1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -106,7 +106,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0">
+    <comment ref="N1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -142,7 +142,7 @@
     <author>HuangJunShan HuangJunShan</author>
   </authors>
   <commentList>
-    <comment ref="J1" authorId="0">
+    <comment ref="K1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -168,7 +168,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="0">
+    <comment ref="L1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -194,7 +194,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L1" authorId="0">
+    <comment ref="M1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -220,7 +220,111 @@
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0">
+    <comment ref="N1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>HuangJunShan HuangJunShan:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+普通攻击附加额外的毒素伤害，或者使用毒系魔法时有伤害加成</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>HuangJunShan HuangJunShan:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+普通攻击附加额外的火焰伤害，或者使用火系魔法时有伤害加成</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>HuangJunShan HuangJunShan:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+普通攻击附加额外的冰冻伤害，或者使用冰系魔法时有伤害加成</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>HuangJunShan HuangJunShan:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+普通攻击附加额外的闪电伤害，或者使用电系魔法时有伤害加成</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -251,7 +355,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="125">
   <si>
     <t>ID</t>
   </si>
@@ -264,89 +368,6 @@
   </si>
   <si>
     <t>des</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>攻击</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>挥舞武器对敌人进行打击，可对单一目标造成</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>80%</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>物理伤害。</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>火魔</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>将冰元素凝聚成两枚冰锤，射向敌人造成</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>80%</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>物理伤害和</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>30%</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>冰冻伤害。</t>
-    </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -383,200 +404,6 @@
       </rPr>
       <t>istance</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>重击</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>半月斩</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>光愈</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>将光元素凝聚成光球，注入友方体力，治愈受到的伤害，根据魔力80%恢复生命。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>火环</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>暴风雪</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>水盾</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>光精灵</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>凝聚火元素，向四周爆开，对周围敌人造成</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>50%</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>火焰伤害并阵晕敌人</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>0.5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>秒。</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>回旋斩</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>挥舞武器攻向身前敌人，对前方敌人造成</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>120%</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>物理伤害并击退敌人，并施加</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>破甲。</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>将前方冰元素凝聚成冰块，砸向前方区域，对敌人造成50%物理伤害和5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>0%</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>冰冻伤害，并附加</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>迟缓。</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>将火元素凝聚成型召唤出火魔，攻击敌人可造成120%火焰伤害，并燃烧敌人，持续30秒。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>爆炎枪</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>将火元素凝聚成枪射向敌人，对敌人造成700%火焰伤害，根据目标剩余生命最多可额外提高50%伤害。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>火焰陷阱</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>狂魔乱舞</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>拔刀斩</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>拔出武器以极快的速度斩向敌人，对前方敌人造成470%物理伤害，并且打断目标技能的冷却时间。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>水镜术</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>凝聚水元素在周身形成屏障，扭曲光线折射，进入隐身状态，让他人无法发现自己，持续120秒。</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -661,18 +488,6 @@
     <t>damageMode</t>
   </si>
   <si>
-    <t>疾风斩</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>冰锥</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>冰锤术</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>type</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -681,27 +496,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>技能名称</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>秒数</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>冷却时间</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>消耗魔法</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>距离</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>攻击角度</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -739,50 +534,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>火焰伤害</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>冰冻伤害</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>闪电伤害</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>毒素伤害</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>持续时间</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>伤害间隔</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>下一个技能id</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>播放动画名称</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>受击特效预制件</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>技能预制件</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>攻击数量</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Single</t>
   </si>
   <si>
@@ -815,82 +566,7 @@
     <t>Projectile</t>
   </si>
   <si>
-    <t>物理伤害或技能威力</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>SummonId</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>召唤出来的对象的id</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>SkillEffect/effect_skill1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>SkillEffect/effect_skill2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>SkillEffect/effect_skill3</t>
-  </si>
-  <si>
-    <t>SkillEffect/effect_skill4</t>
-  </si>
-  <si>
-    <t>SkillEffect/effect_skill5</t>
-  </si>
-  <si>
-    <t>SkillEffect/effect_skill6</t>
-  </si>
-  <si>
-    <t>SkillEffect/effect_skill7</t>
-  </si>
-  <si>
-    <t>SkillEffect/effect_skill8</t>
-  </si>
-  <si>
-    <t>SkillEffect/effect_skill9</t>
-  </si>
-  <si>
-    <t>SkillEffect/effect_skill10</t>
-  </si>
-  <si>
-    <t>SkillEffect/effect_skill11</t>
-  </si>
-  <si>
-    <t>SkillEffect/effect_skill12</t>
-  </si>
-  <si>
-    <t>SkillEffect/effect_skill13</t>
-  </si>
-  <si>
-    <t>SkillEffect/effect_skill14</t>
-  </si>
-  <si>
-    <t>SkillEffect/effect_skill15</t>
-  </si>
-  <si>
-    <t>SkillEffect/effect_skill16</t>
-  </si>
-  <si>
-    <t>SkillEffect/effect_skill17</t>
-  </si>
-  <si>
-    <r>
-      <t>a</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>tk1</t>
-    </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -908,106 +584,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>skill1</t>
-  </si>
-  <si>
-    <t>SkillEffect/effect_hit</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>快速砍向敌人，对单一目标造成</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>140%</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>物理伤害，每次使用后</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>10</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>秒内降低</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>15%</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>技能冷却，可叠加</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>层。</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>挥舞武器斩向前方敌人，对前方敌人造成250%物理伤害并击退敌人，并施加流血。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Sector</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Circle</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>None</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1025,69 +606,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>伤害模式</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>无影响</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>SkillEffect/effect_skill1001</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>冰块</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>专注地对敌人进行一次强有力的攻击，造成</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>210%</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>物理伤害</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>。</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>将光元素凝聚成型召唤出光精灵，持续恢复队友生命，每0.5秒根据魔力10%恢复生命，持续5秒。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>将火元素凝聚并注入地下，敌人经过时爆炸并造成200%火焰伤害，最多存在60秒。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>凝聚水元素在周围形成屏障，阻挡受到的攻击，吸收150%伤害后破碎，最多存在60秒。</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1099,14 +618,212 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>掉落物</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Drop</t>
+  </si>
+  <si>
+    <t>Client</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>武技是攻击加成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>法术是魔力加成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Recovery</t>
+  </si>
+  <si>
+    <t>斩击</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>斩击2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>斩击3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>杖击</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>杖击2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>杖击3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>搏击</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>搏击2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>搏击3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>i_11200001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>i_11400001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>i_11100001</t>
+  </si>
+  <si>
+    <t>幽冥魂锁</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>地狱业火</t>
+  </si>
+  <si>
+    <t>对目标及周围3米范围内敌人造成200%火焰伤害，并造成附加点燃。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>i_11101001</t>
+  </si>
+  <si>
+    <t>Target</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标位置</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>描述</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>冷却</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>消耗</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>恢复</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>伤害</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>火伤</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰伤</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>电伤</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>毒伤</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>伤害间隔</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>持续时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>下一个技能</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>预制件名字</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>图标</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>动画名称</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>受击特效预制件</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击类型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>模式</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>buffID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>召唤物ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>矩形</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rect</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>i_11102001</t>
+  </si>
+  <si>
+    <t>Rect</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Target</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>地狱业火2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰封炼狱</t>
+  </si>
+  <si>
+    <t>角度范围</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>i_11103001</t>
+  </si>
+  <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>挥舞武器斩向前方敌人，对前方敌人造成</t>
+      <t>对自身前方扇形</t>
     </r>
     <r>
       <rPr>
@@ -1114,7 +831,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>260%</t>
+      <t>6</t>
     </r>
     <r>
       <rPr>
@@ -1123,7 +840,15 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>物理伤害</t>
+      <t>米范围内敌人造成</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>110%</t>
     </r>
     <r>
       <rPr>
@@ -1132,37 +857,339 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>。</t>
+      <t>的冰冻伤害，并附加迟缓。</t>
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>炸弹</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>对前方敌人造成</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>80%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>物理伤害和</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>30%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>冰冻伤害，并附加定身。</t>
+    </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>掉落物</t>
+    <t>神圣洗礼</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Drop</t>
-  </si>
-  <si>
-    <t>Drop</t>
+    <t>对直线10米范围内敌人造成210%闪电伤害，冰击退敌人。</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>SkillEffect/effect_skill1002</t>
+    <t>i_11104001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>SkillEffect/effect_skill1003</t>
+    <r>
+      <t>skill</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>skill</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>碧落轰雷</t>
+  </si>
+  <si>
+    <t>对周围10米敌人造成440%闪电伤害。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>i_11105001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>xp</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Group</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>碧落轰雷2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>名字</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect_empty</t>
+  </si>
+  <si>
+    <t>hit_empty</t>
+  </si>
+  <si>
+    <t>atk2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>atk3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>tk</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>挥舞武器对敌人进行打击，可对单一目标造成</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>80%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>物理伤害，一段。</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>挥拳对敌人进行打击，可对单一目标造成50</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>物理伤害，一段。</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>挥舞武器对敌人进行打击，可对单一目标造成100</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>物理伤害，二段。</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>挥拳对敌人进行打击，可对单一目标造成65</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>物理伤害，二段。</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>挥拳对敌人进行打击，可对单一目标造成100</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>物理伤害，三段。</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>挥舞武器对敌人进行打击，可对单一目标造成150</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>物理伤害，三段。</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -1224,6 +1251,19 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -1257,7 +1297,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1283,9 +1323,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1295,7 +1332,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1570,108 +1612,119 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V4827"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:Y4823"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="H1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="N23" sqref="N23"/>
+      <pane xSplit="3" topLeftCell="S1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="108.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="65.81640625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.54296875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="8.7265625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.7265625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.453125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.26953125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="24.81640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="24.81640625" style="1" customWidth="1"/>
+    <col min="20" max="20" width="16.7265625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="21.453125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.26953125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="11.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="16.5">
+    <row r="1" spans="1:25" ht="16.5">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>2</v>
+        <v>113</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>3</v>
+        <v>69</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>8</v>
+        <v>70</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>9</v>
+        <v>71</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G1" t="s">
-        <v>32</v>
+        <v>24</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>96</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="I1" t="s">
-        <v>34</v>
-      </c>
-      <c r="J1" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="K1" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="L1" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="M1" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="N1" t="s">
-        <v>39</v>
-      </c>
-      <c r="O1" t="s">
-        <v>40</v>
-      </c>
-      <c r="P1" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>42</v>
-      </c>
-      <c r="R1" t="s">
-        <v>43</v>
-      </c>
-      <c r="S1" t="s">
-        <v>44</v>
-      </c>
-      <c r="T1" t="s">
-        <v>45</v>
-      </c>
-      <c r="U1" t="s">
-        <v>46</v>
-      </c>
-      <c r="V1" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="K1" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="L1" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="M1" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="N1" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="O1" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="P1" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q1" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="R1" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="S1" s="6" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="2" spans="1:22" ht="16.5">
+      <c r="T1" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="U1" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="V1" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="W1" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="X1" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y1" s="8" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" ht="16.5">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1691,63 +1744,72 @@
         <v>1</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="L2" s="6" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="N2" s="6" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="O2" s="6" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="P2" s="6" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="Q2" s="6" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="R2" s="6" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="S2" s="6" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="T2" s="6" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="U2" s="6" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="V2" s="6" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22">
+        <v>8</v>
+      </c>
+      <c r="W2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="X2" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y2" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25">
       <c r="A3" s="4">
         <v>1</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>4</v>
+        <v>51</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>5</v>
+        <v>119</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -1756,7 +1818,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G3">
         <v>30</v>
@@ -1764,11 +1826,11 @@
       <c r="H3" s="1">
         <v>0</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="1">
+        <v>0</v>
+      </c>
+      <c r="J3">
         <v>80</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -1780,125 +1842,149 @@
         <v>0</v>
       </c>
       <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
         <v>0.1</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>0.06</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>0</v>
       </c>
-      <c r="Q3" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="R3" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="S3" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="T3" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="U3" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" s="12" customFormat="1">
-      <c r="A4" s="10">
+      <c r="R3" s="13">
+        <v>11406001</v>
+      </c>
+      <c r="S3" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="T3" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="U3" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="X3">
+        <v>0</v>
+      </c>
+      <c r="Y3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" s="1" customFormat="1">
+      <c r="A4" s="4">
         <v>2</v>
       </c>
-      <c r="B4" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="12">
-        <v>5</v>
-      </c>
-      <c r="E4" s="12">
-        <v>5</v>
-      </c>
-      <c r="F4" s="12">
+      <c r="B4" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1">
         <v>0</v>
       </c>
-      <c r="G4" s="12">
-        <v>90</v>
-      </c>
-      <c r="H4" s="12">
-        <v>1</v>
-      </c>
-      <c r="I4" s="12">
-        <v>80</v>
-      </c>
-      <c r="J4" s="12">
+      <c r="F4" s="1">
+        <v>2</v>
+      </c>
+      <c r="G4" s="1">
+        <v>30</v>
+      </c>
+      <c r="H4" s="1">
         <v>0</v>
       </c>
-      <c r="K4" s="12">
-        <v>30</v>
-      </c>
-      <c r="L4" s="12">
+      <c r="I4" s="1">
         <v>0</v>
       </c>
-      <c r="M4" s="12">
+      <c r="J4" s="1">
+        <v>100</v>
+      </c>
+      <c r="K4" s="1">
         <v>0</v>
       </c>
+      <c r="L4" s="1">
+        <v>0</v>
+      </c>
+      <c r="M4" s="1">
+        <v>0</v>
+      </c>
       <c r="N4" s="1">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="O4" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="P4" s="1">
         <v>0.06</v>
       </c>
-      <c r="P4" s="12">
-        <v>1001</v>
-      </c>
-      <c r="Q4" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="R4" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="S4" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="T4" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="U4" s="8" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" s="1" customFormat="1">
+      <c r="Q4" s="1">
+        <v>0</v>
+      </c>
+      <c r="R4" s="13">
+        <v>11406002</v>
+      </c>
+      <c r="S4" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="T4" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="U4" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="V4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="W4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="X4" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" s="1" customFormat="1">
       <c r="A5" s="4">
         <v>3</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>23</v>
+        <v>53</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>124</v>
       </c>
       <c r="D5" s="1">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0</v>
+      </c>
+      <c r="F5" s="1">
+        <v>2</v>
+      </c>
+      <c r="G5" s="1">
         <v>30</v>
       </c>
-      <c r="E5" s="1">
-        <v>50</v>
-      </c>
-      <c r="F5" s="1">
-        <v>5</v>
-      </c>
-      <c r="G5" s="1">
-        <v>180</v>
-      </c>
       <c r="H5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" s="1">
         <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="K5" s="1">
         <v>0</v>
@@ -1910,125 +1996,149 @@
         <v>0</v>
       </c>
       <c r="N5" s="1">
-        <v>30.1</v>
+        <v>0</v>
       </c>
       <c r="O5" s="1">
-        <v>60</v>
+        <v>0.1</v>
       </c>
       <c r="P5" s="1">
+        <v>0.06</v>
+      </c>
+      <c r="Q5" s="1">
         <v>0</v>
       </c>
-      <c r="Q5" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="R5" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="S5" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="T5" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="U5" s="8" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22" s="12" customFormat="1">
-      <c r="A6" s="10">
+      <c r="R5" s="13">
+        <v>11406003</v>
+      </c>
+      <c r="S5" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="T5" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="U5" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="V5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="W5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="X5" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" s="1" customFormat="1">
+      <c r="A6" s="4">
         <v>4</v>
       </c>
-      <c r="B6" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="D6" s="12">
-        <v>8</v>
-      </c>
-      <c r="E6" s="12">
-        <v>8</v>
-      </c>
-      <c r="F6" s="12">
+      <c r="B6" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1">
         <v>0</v>
       </c>
-      <c r="G6" s="12">
-        <v>50</v>
-      </c>
-      <c r="H6" s="12">
+      <c r="F6" s="1">
+        <v>2</v>
+      </c>
+      <c r="G6" s="1">
+        <v>30</v>
+      </c>
+      <c r="H6" s="1">
+        <v>1</v>
+      </c>
+      <c r="I6" s="1">
         <v>0</v>
       </c>
-      <c r="I6" s="12">
-        <v>140</v>
-      </c>
-      <c r="J6" s="12">
+      <c r="J6" s="1">
+        <v>80</v>
+      </c>
+      <c r="K6" s="1">
         <v>0</v>
       </c>
-      <c r="K6" s="12">
+      <c r="L6" s="1">
         <v>0</v>
       </c>
-      <c r="L6" s="12">
+      <c r="M6" s="1">
         <v>0</v>
       </c>
-      <c r="M6" s="12">
+      <c r="N6" s="1">
         <v>0</v>
       </c>
-      <c r="N6" s="1">
+      <c r="O6" s="1">
         <v>0.1</v>
       </c>
-      <c r="O6" s="1">
+      <c r="P6" s="1">
         <v>0.06</v>
       </c>
-      <c r="P6" s="12">
+      <c r="Q6" s="1">
         <v>0</v>
       </c>
-      <c r="Q6" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="R6" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="S6" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="T6" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="U6" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22">
+      <c r="R6" s="13">
+        <v>11106001</v>
+      </c>
+      <c r="S6" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="T6" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="U6" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="V6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="W6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="X6" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" s="1" customFormat="1">
       <c r="A7" s="4">
         <v>5</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="D7" s="1">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E7" s="1">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
+        <v>2</v>
+      </c>
+      <c r="G7" s="1">
+        <v>30</v>
+      </c>
+      <c r="H7" s="1">
+        <v>1</v>
+      </c>
+      <c r="I7" s="1">
         <v>0</v>
       </c>
-      <c r="G7" s="1">
-        <v>50</v>
-      </c>
-      <c r="H7" s="1">
-        <v>0</v>
-      </c>
-      <c r="I7" s="1">
-        <v>210</v>
-      </c>
       <c r="J7" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K7" s="1">
         <v>0</v>
@@ -2040,125 +2150,149 @@
         <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
         <v>0.1</v>
       </c>
-      <c r="O7" s="1">
+      <c r="P7" s="1">
         <v>0.06</v>
       </c>
-      <c r="P7" s="1">
+      <c r="Q7" s="1">
         <v>0</v>
       </c>
-      <c r="Q7" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="R7" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="S7" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="T7" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="U7" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22" s="12" customFormat="1">
-      <c r="A8" s="10">
+      <c r="R7" s="13">
+        <v>11106002</v>
+      </c>
+      <c r="S7" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="T7" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="U7" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="V7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="W7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="X7" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" s="1" customFormat="1">
+      <c r="A8" s="4">
         <v>6</v>
       </c>
-      <c r="B8" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" s="12">
-        <v>12</v>
-      </c>
-      <c r="E8" s="12">
-        <v>12</v>
-      </c>
-      <c r="F8" s="12">
+      <c r="B8" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1</v>
+      </c>
+      <c r="E8" s="1">
         <v>0</v>
       </c>
-      <c r="G8" s="12">
-        <v>50</v>
-      </c>
-      <c r="H8" s="12">
+      <c r="F8" s="1">
+        <v>2</v>
+      </c>
+      <c r="G8" s="1">
+        <v>30</v>
+      </c>
+      <c r="H8" s="1">
+        <v>1</v>
+      </c>
+      <c r="I8" s="1">
         <v>0</v>
       </c>
-      <c r="I8" s="12">
-        <v>120</v>
-      </c>
-      <c r="J8" s="12">
+      <c r="J8" s="1">
+        <v>150</v>
+      </c>
+      <c r="K8" s="1">
         <v>0</v>
       </c>
-      <c r="K8" s="12">
+      <c r="L8" s="1">
         <v>0</v>
       </c>
-      <c r="L8" s="12">
+      <c r="M8" s="1">
         <v>0</v>
       </c>
-      <c r="M8" s="12">
+      <c r="N8" s="1">
         <v>0</v>
       </c>
-      <c r="N8" s="1">
+      <c r="O8" s="1">
         <v>0.1</v>
       </c>
-      <c r="O8" s="1">
+      <c r="P8" s="1">
         <v>0.06</v>
       </c>
-      <c r="P8" s="12">
+      <c r="Q8" s="1">
         <v>0</v>
       </c>
-      <c r="Q8" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="R8" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="S8" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="T8" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="U8" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22">
+      <c r="R8" s="13">
+        <v>11106003</v>
+      </c>
+      <c r="S8" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="T8" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="U8" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="V8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="W8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="X8" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" s="1" customFormat="1">
       <c r="A9" s="4">
         <v>7</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>14</v>
+        <v>57</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>120</v>
       </c>
       <c r="D9" s="1">
-        <v>6.5</v>
+        <v>1</v>
       </c>
       <c r="E9" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>8</v>
+        <v>1.5</v>
       </c>
       <c r="G9" s="1">
-        <v>180</v>
+        <v>30</v>
       </c>
       <c r="H9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" s="1">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="K9" s="1">
         <v>0</v>
@@ -2170,128 +2304,152 @@
         <v>0</v>
       </c>
       <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
         <v>0.1</v>
       </c>
-      <c r="O9" s="1">
+      <c r="P9" s="1">
         <v>0.06</v>
       </c>
-      <c r="P9" s="1">
+      <c r="Q9" s="1">
         <v>0</v>
       </c>
-      <c r="Q9" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="R9" t="s">
-        <v>103</v>
-      </c>
-      <c r="S9" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="T9" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="U9" s="8" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" s="12" customFormat="1">
-      <c r="A10" s="10">
+      <c r="R9" s="13">
+        <v>11206001</v>
+      </c>
+      <c r="S9" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="T9" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="U9" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="V9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="W9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="X9" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" s="1" customFormat="1">
+      <c r="A10" s="4">
         <v>8</v>
       </c>
-      <c r="B10" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="12">
-        <v>8</v>
-      </c>
-      <c r="E10" s="12">
-        <v>8</v>
-      </c>
-      <c r="F10" s="12">
-        <v>5</v>
-      </c>
-      <c r="G10" s="12">
-        <v>180</v>
-      </c>
-      <c r="H10" s="12">
+      <c r="B10" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="D10" s="1">
         <v>1</v>
       </c>
-      <c r="I10" s="12">
-        <v>50</v>
-      </c>
-      <c r="J10" s="12">
-        <v>50</v>
-      </c>
-      <c r="K10" s="12">
+      <c r="E10" s="1">
         <v>0</v>
       </c>
-      <c r="L10" s="12">
+      <c r="F10" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="G10" s="1">
+        <v>30</v>
+      </c>
+      <c r="H10" s="1">
         <v>0</v>
       </c>
-      <c r="M10" s="12">
+      <c r="I10" s="1">
         <v>0</v>
       </c>
+      <c r="J10" s="1">
+        <v>65</v>
+      </c>
+      <c r="K10" s="1">
+        <v>0</v>
+      </c>
+      <c r="L10" s="1">
+        <v>0</v>
+      </c>
+      <c r="M10" s="1">
+        <v>0</v>
+      </c>
       <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
         <v>0.1</v>
       </c>
-      <c r="O10" s="1">
+      <c r="P10" s="1">
         <v>0.06</v>
       </c>
-      <c r="P10" s="12">
+      <c r="Q10" s="1">
         <v>0</v>
       </c>
-      <c r="Q10" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="R10" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="S10" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="T10" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="U10" s="8" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22">
+      <c r="R10" s="13">
+        <v>11206002</v>
+      </c>
+      <c r="S10" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="T10" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="U10" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="V10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="W10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="X10" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" s="1" customFormat="1">
       <c r="A11" s="4">
         <v>9</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>22</v>
+        <v>123</v>
       </c>
       <c r="D11" s="1">
-        <v>8.5</v>
+        <v>1</v>
       </c>
       <c r="E11" s="1">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>8</v>
+        <v>1.5</v>
       </c>
       <c r="G11" s="1">
-        <v>180</v>
+        <v>30</v>
       </c>
       <c r="H11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" s="1">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="J11" s="1">
+        <v>100</v>
+      </c>
+      <c r="K11" s="1">
         <v>0</v>
-      </c>
-      <c r="K11" s="1">
-        <v>50</v>
       </c>
       <c r="L11" s="1">
         <v>0</v>
@@ -2300,113 +2458,137 @@
         <v>0</v>
       </c>
       <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
         <v>0.1</v>
       </c>
-      <c r="O11" s="1">
+      <c r="P11" s="1">
         <v>0.06</v>
       </c>
-      <c r="P11" s="1">
-        <v>1002</v>
-      </c>
-      <c r="Q11" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="R11" t="s">
-        <v>103</v>
-      </c>
-      <c r="S11" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="T11" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="U11" s="8" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22" s="12" customFormat="1">
-      <c r="A12" s="10">
+      <c r="Q11" s="1">
+        <v>0</v>
+      </c>
+      <c r="R11" s="13">
+        <v>11206003</v>
+      </c>
+      <c r="S11" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="T11" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="U11" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="V11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="W11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="X11" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" s="12" customFormat="1">
+      <c r="A12" s="4">
         <v>10</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>118</v>
+        <v>63</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>99</v>
       </c>
       <c r="D12" s="12">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="E12" s="12">
-        <v>20</v>
-      </c>
-      <c r="F12" s="12">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="F12" s="13">
+        <v>8</v>
       </c>
       <c r="G12" s="12">
-        <v>180</v>
+        <v>1</v>
       </c>
       <c r="H12" s="12">
         <v>1</v>
       </c>
-      <c r="I12" s="12">
-        <v>150</v>
+      <c r="I12" s="1">
+        <v>0</v>
       </c>
       <c r="J12" s="12">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="K12" s="12">
         <v>0</v>
       </c>
       <c r="L12" s="12">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="M12" s="12">
         <v>0</v>
       </c>
-      <c r="N12" s="1">
-        <v>60.1</v>
+      <c r="N12" s="12">
+        <v>0</v>
       </c>
       <c r="O12" s="1">
-        <v>120</v>
-      </c>
-      <c r="P12" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="P12" s="1">
+        <v>0.06</v>
+      </c>
+      <c r="Q12" s="12">
         <v>0</v>
       </c>
-      <c r="Q12" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="R12" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="S12" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="T12" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="U12" s="8" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22">
+      <c r="R12" s="13">
+        <v>11101001</v>
+      </c>
+      <c r="S12" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="T12" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="U12" s="13">
+        <v>11101001</v>
+      </c>
+      <c r="V12" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="W12" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="X12" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="12">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" s="1" customFormat="1">
       <c r="A13" s="4">
         <v>11</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>18</v>
+        <v>64</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>116</v>
+        <v>65</v>
       </c>
       <c r="D13" s="1">
+        <v>12</v>
+      </c>
+      <c r="E13" s="1">
         <v>15</v>
       </c>
-      <c r="E13" s="1">
-        <v>12</v>
-      </c>
       <c r="F13" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G13" s="1">
         <v>180</v>
@@ -2415,7 +2597,7 @@
         <v>1</v>
       </c>
       <c r="I13" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J13" s="1">
         <v>0</v>
@@ -2430,57 +2612,69 @@
         <v>0</v>
       </c>
       <c r="N13" s="1">
-        <v>5.0999999999999996</v>
+        <v>0</v>
       </c>
       <c r="O13" s="1">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="P13" s="1">
+        <v>0.06</v>
+      </c>
+      <c r="Q13" s="1">
+        <v>1001</v>
+      </c>
+      <c r="R13" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="S13" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="T13" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="U13" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="V13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="W13" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="X13" s="1">
         <v>0</v>
       </c>
-      <c r="Q13" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="R13" t="s">
-        <v>103</v>
-      </c>
-      <c r="S13" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="T13" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="U13" s="8" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22" s="12" customFormat="1">
-      <c r="A14" s="10">
+      <c r="Y13" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" s="12" customFormat="1" ht="15">
+      <c r="A14" s="4">
         <v>12</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>106</v>
+        <v>95</v>
+      </c>
+      <c r="C14" s="21" t="s">
+        <v>98</v>
       </c>
       <c r="D14" s="12">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E14" s="12">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="F14" s="12">
+        <v>6</v>
+      </c>
+      <c r="G14" s="12">
+        <v>45</v>
+      </c>
+      <c r="H14" s="12">
+        <v>1</v>
+      </c>
+      <c r="I14" s="1">
         <v>0</v>
-      </c>
-      <c r="G14" s="12">
-        <v>50</v>
-      </c>
-      <c r="H14" s="12">
-        <v>0</v>
-      </c>
-      <c r="I14" s="12">
-        <v>250</v>
       </c>
       <c r="J14" s="12">
         <v>0</v>
@@ -2489,57 +2683,69 @@
         <v>0</v>
       </c>
       <c r="L14" s="12">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="M14" s="12">
         <v>0</v>
       </c>
-      <c r="N14" s="1">
+      <c r="N14" s="12">
+        <v>0</v>
+      </c>
+      <c r="O14" s="1">
         <v>0.1</v>
       </c>
-      <c r="O14" s="1">
+      <c r="P14" s="1">
         <v>0.06</v>
       </c>
-      <c r="P14" s="12">
+      <c r="Q14" s="12">
         <v>0</v>
       </c>
-      <c r="Q14" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="R14" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="S14" s="14" t="s">
+      <c r="R14" s="13">
+        <v>11103001</v>
+      </c>
+      <c r="S14" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="T14" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="T14" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="U14" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22">
+      <c r="U14" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="V14" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="W14" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="X14" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25">
       <c r="A15" s="4">
         <v>13</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>24</v>
+        <v>100</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>25</v>
+        <v>101</v>
       </c>
       <c r="D15" s="1">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E15" s="1">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F15" s="1">
         <v>10</v>
       </c>
       <c r="G15" s="1">
-        <v>90</v>
+        <v>1</v>
       </c>
       <c r="H15" s="1">
         <v>1</v>
@@ -2548,7 +2754,7 @@
         <v>0</v>
       </c>
       <c r="J15" s="1">
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
         <v>0</v>
@@ -2557,63 +2763,75 @@
         <v>0</v>
       </c>
       <c r="M15" s="1">
+        <v>21</v>
+      </c>
+      <c r="N15" s="1">
         <v>0</v>
       </c>
-      <c r="N15" s="1">
-        <v>0.1</v>
-      </c>
       <c r="O15" s="1">
-        <v>0.06</v>
+        <v>1.51</v>
       </c>
       <c r="P15" s="1">
+        <v>0.15</v>
+      </c>
+      <c r="Q15" s="1">
         <v>0</v>
       </c>
-      <c r="Q15" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="R15" t="s">
-        <v>103</v>
-      </c>
-      <c r="S15" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="T15" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="U15" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22" s="12" customFormat="1">
-      <c r="A16" s="10">
+      <c r="R15" s="13">
+        <v>11104001</v>
+      </c>
+      <c r="S15" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="T15" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="U15" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="V15" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="W15" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="X15" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" s="12" customFormat="1">
+      <c r="A16" s="4">
         <v>14</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>26</v>
+        <v>106</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="D16" s="12">
-        <v>6</v>
+        <v>60</v>
       </c>
       <c r="E16" s="12">
-        <v>12</v>
+        <v>90</v>
       </c>
       <c r="F16" s="12">
+        <v>10</v>
+      </c>
+      <c r="G16" s="12">
         <v>0</v>
-      </c>
-      <c r="G16" s="12">
-        <v>180</v>
       </c>
       <c r="H16" s="12">
         <v>1</v>
       </c>
-      <c r="I16" s="12">
+      <c r="I16" s="1">
         <v>0</v>
       </c>
       <c r="J16" s="12">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="K16" s="12">
         <v>0</v>
@@ -2624,123 +2842,138 @@
       <c r="M16" s="12">
         <v>0</v>
       </c>
-      <c r="N16" s="1">
-        <v>60.1</v>
+      <c r="N16" s="12">
+        <v>0</v>
       </c>
       <c r="O16" s="1">
-        <v>120</v>
-      </c>
-      <c r="P16" s="12">
-        <v>1003</v>
-      </c>
-      <c r="Q16" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="R16" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="S16" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="T16" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="U16" s="8" t="s">
+        <v>0.1</v>
+      </c>
+      <c r="P16" s="1">
+        <v>0.06</v>
+      </c>
+      <c r="Q16" s="12">
+        <v>1002</v>
+      </c>
+      <c r="R16" s="13">
+        <v>11105001</v>
+      </c>
+      <c r="S16" s="13" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="17" spans="1:21">
+      <c r="T16" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="U16" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="V16" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="W16" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="X16" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y16" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25" s="17" customFormat="1">
       <c r="A17" s="4">
-        <v>15</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="D17" s="1">
-        <v>5</v>
-      </c>
-      <c r="E17" s="1">
-        <v>12</v>
-      </c>
-      <c r="F17" s="1">
+        <v>1001</v>
+      </c>
+      <c r="B17" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="C17" s="15"/>
+      <c r="D17" s="17">
         <v>0</v>
       </c>
-      <c r="G17" s="1">
-        <v>50</v>
-      </c>
-      <c r="H17" s="1">
+      <c r="E17" s="17">
         <v>0</v>
       </c>
+      <c r="F17" s="17">
+        <v>3</v>
+      </c>
+      <c r="G17" s="17">
+        <v>180</v>
+      </c>
+      <c r="H17" s="17">
+        <v>1</v>
+      </c>
       <c r="I17" s="1">
-        <v>260</v>
-      </c>
-      <c r="J17" s="1">
         <v>0</v>
       </c>
-      <c r="K17" s="1">
+      <c r="J17" s="17">
         <v>0</v>
       </c>
-      <c r="L17" s="1">
+      <c r="K17" s="17">
+        <v>200</v>
+      </c>
+      <c r="L17" s="17">
         <v>0</v>
       </c>
-      <c r="M17" s="1">
+      <c r="M17" s="17">
         <v>0</v>
       </c>
-      <c r="N17" s="1">
+      <c r="N17" s="17">
+        <v>0</v>
+      </c>
+      <c r="O17" s="1">
         <v>0.1</v>
       </c>
-      <c r="O17" s="1">
+      <c r="P17" s="1">
         <v>0.06</v>
       </c>
-      <c r="P17" s="1">
+      <c r="Q17" s="17">
         <v>0</v>
       </c>
-      <c r="Q17" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="R17" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="S17" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="T17" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="U17" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="18" spans="1:21" s="12" customFormat="1">
-      <c r="A18" s="10">
-        <v>16</v>
+      <c r="R17" s="13">
+        <v>11102002</v>
+      </c>
+      <c r="S17" s="13"/>
+      <c r="U17" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="V17" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="W17" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="X17" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y17" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25" s="12" customFormat="1">
+      <c r="A18" s="4">
+        <v>1002</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>29</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="C18" s="11"/>
       <c r="D18" s="12">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="E18" s="12">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="F18" s="12">
+        <v>10</v>
+      </c>
+      <c r="G18" s="12">
         <v>0</v>
       </c>
-      <c r="G18" s="12">
-        <v>50</v>
-      </c>
       <c r="H18" s="12">
+        <v>1</v>
+      </c>
+      <c r="I18" s="1">
         <v>0</v>
-      </c>
-      <c r="I18" s="12">
-        <v>470</v>
       </c>
       <c r="J18" s="12">
         <v>0</v>
@@ -2752,416 +2985,198 @@
         <v>0</v>
       </c>
       <c r="M18" s="12">
+        <v>44</v>
+      </c>
+      <c r="N18" s="12">
         <v>0</v>
       </c>
-      <c r="N18" s="1">
+      <c r="O18" s="1">
+        <v>1.01</v>
+      </c>
+      <c r="P18" s="1">
         <v>0.1</v>
       </c>
-      <c r="O18" s="1">
-        <v>0.06</v>
-      </c>
-      <c r="P18" s="12">
+      <c r="Q18" s="12">
         <v>0</v>
       </c>
-      <c r="Q18" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="R18" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="S18" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="T18" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="U18" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="19" spans="1:21">
-      <c r="A19" s="4">
-        <v>17</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D19" s="1">
-        <v>20</v>
-      </c>
-      <c r="E19" s="1">
-        <v>20</v>
-      </c>
-      <c r="F19" s="1">
+      <c r="R18" s="13">
+        <v>11105002</v>
+      </c>
+      <c r="S18" s="13"/>
+      <c r="T18" s="8"/>
+      <c r="U18" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="V18" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="W18" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="X18" s="1">
         <v>0</v>
       </c>
-      <c r="G19" s="1">
-        <v>180</v>
-      </c>
-      <c r="H19" s="1">
-        <v>1</v>
-      </c>
-      <c r="I19" s="1">
-        <v>100</v>
-      </c>
-      <c r="J19" s="1">
+      <c r="Y18" s="13">
         <v>0</v>
       </c>
-      <c r="K19" s="1">
-        <v>0</v>
-      </c>
-      <c r="L19" s="1">
-        <v>0</v>
-      </c>
-      <c r="M19" s="1">
-        <v>0</v>
-      </c>
-      <c r="N19" s="1">
-        <v>120.1</v>
-      </c>
-      <c r="O19" s="1">
-        <v>240</v>
-      </c>
-      <c r="P19" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q19" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="R19" t="s">
-        <v>103</v>
-      </c>
-      <c r="S19" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="T19" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="U19" s="8" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="20" spans="1:21" s="12" customFormat="1">
-      <c r="A20" s="13">
-        <v>1001</v>
-      </c>
-      <c r="B20" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="C20" s="13"/>
-      <c r="D20" s="12">
-        <v>0</v>
-      </c>
-      <c r="E20" s="12">
-        <v>0</v>
-      </c>
-      <c r="F20" s="12">
-        <v>8</v>
-      </c>
-      <c r="G20" s="12">
-        <v>90</v>
-      </c>
-      <c r="H20" s="12">
-        <v>1</v>
-      </c>
-      <c r="I20" s="12">
-        <v>80</v>
-      </c>
-      <c r="J20" s="12">
-        <v>0</v>
-      </c>
-      <c r="K20" s="12">
-        <v>30</v>
-      </c>
-      <c r="L20" s="12">
-        <v>0</v>
-      </c>
-      <c r="M20" s="12">
-        <v>0</v>
-      </c>
-      <c r="N20" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="O20" s="1">
-        <v>0.06</v>
-      </c>
-      <c r="P20" s="12">
-        <v>1001</v>
-      </c>
-      <c r="Q20" s="14" t="s">
-        <v>113</v>
-      </c>
-      <c r="R20" s="14"/>
-      <c r="S20" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="T20" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="U20" s="18" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="21" spans="1:21" s="18" customFormat="1">
-      <c r="A21" s="16">
-        <v>1002</v>
-      </c>
-      <c r="B21" s="17" t="s">
-        <v>114</v>
-      </c>
-      <c r="C21" s="16"/>
-      <c r="D21" s="18">
-        <v>0</v>
-      </c>
-      <c r="E21" s="18">
-        <v>0</v>
-      </c>
-      <c r="F21" s="18">
-        <v>1</v>
-      </c>
-      <c r="G21" s="18">
-        <v>360</v>
-      </c>
-      <c r="H21" s="18">
-        <v>1</v>
-      </c>
-      <c r="I21" s="18">
-        <v>50</v>
-      </c>
-      <c r="J21" s="18">
-        <v>0</v>
-      </c>
-      <c r="K21" s="18">
-        <v>50</v>
-      </c>
-      <c r="L21" s="18">
-        <v>0</v>
-      </c>
-      <c r="M21" s="18">
-        <v>0</v>
-      </c>
-      <c r="N21" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="O21" s="1">
-        <v>0.06</v>
-      </c>
-      <c r="P21" s="18">
-        <v>0</v>
-      </c>
-      <c r="Q21" s="14" t="s">
-        <v>126</v>
-      </c>
-      <c r="S21" s="19" t="s">
-        <v>104</v>
-      </c>
-      <c r="T21" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="U21" s="19" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="22" spans="1:21" s="12" customFormat="1">
-      <c r="A22" s="13">
-        <v>1003</v>
-      </c>
-      <c r="B22" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="C22" s="13"/>
-      <c r="D22" s="12">
-        <v>0</v>
-      </c>
-      <c r="E22" s="12">
-        <v>0</v>
-      </c>
-      <c r="F22" s="12">
-        <v>3</v>
-      </c>
-      <c r="G22" s="12">
-        <v>180</v>
-      </c>
-      <c r="H22" s="12">
-        <v>1</v>
-      </c>
-      <c r="I22" s="12">
-        <v>0</v>
-      </c>
-      <c r="J22" s="12">
-        <v>200</v>
-      </c>
-      <c r="K22" s="12">
-        <v>0</v>
-      </c>
-      <c r="L22" s="12">
-        <v>0</v>
-      </c>
-      <c r="M22" s="12">
-        <v>0</v>
-      </c>
-      <c r="N22" s="12">
-        <v>0.1</v>
-      </c>
-      <c r="O22" s="12">
-        <v>0.06</v>
-      </c>
-      <c r="P22" s="12">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="14" t="s">
-        <v>127</v>
-      </c>
-      <c r="S22" s="19" t="s">
-        <v>104</v>
-      </c>
-      <c r="T22" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="U22" s="8" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="23" spans="1:21">
+    </row>
+    <row r="19" spans="1:25">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+    </row>
+    <row r="20" spans="1:25">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+    </row>
+    <row r="21" spans="1:25" ht="15">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="W21" s="6"/>
+    </row>
+    <row r="22" spans="1:25">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="W22" s="8"/>
+    </row>
+    <row r="23" spans="1:25">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
-    </row>
-    <row r="24" spans="1:21">
+      <c r="W23" s="1"/>
+    </row>
+    <row r="24" spans="1:25" ht="15">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
-    </row>
-    <row r="25" spans="1:21">
+      <c r="W24" s="6"/>
+    </row>
+    <row r="25" spans="1:25">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
-      <c r="U25" s="6"/>
-    </row>
-    <row r="26" spans="1:21">
+      <c r="W25" s="8"/>
+    </row>
+    <row r="26" spans="1:25">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
-      <c r="U26" s="8"/>
-    </row>
-    <row r="27" spans="1:21">
+      <c r="W26" s="1"/>
+    </row>
+    <row r="27" spans="1:25" ht="15">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
-      <c r="U27" s="1"/>
-    </row>
-    <row r="28" spans="1:21">
+      <c r="W27" s="6"/>
+    </row>
+    <row r="28" spans="1:25">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
-      <c r="U28" s="6"/>
-    </row>
-    <row r="29" spans="1:21">
+      <c r="W28" s="1"/>
+    </row>
+    <row r="29" spans="1:25">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
-      <c r="U29" s="8"/>
-    </row>
-    <row r="30" spans="1:21">
+      <c r="W29" s="1"/>
+    </row>
+    <row r="30" spans="1:25" ht="15">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
-      <c r="U30" s="1"/>
-    </row>
-    <row r="31" spans="1:21">
+      <c r="W30" s="6"/>
+    </row>
+    <row r="31" spans="1:25">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
-      <c r="U31" s="6"/>
-    </row>
-    <row r="32" spans="1:21">
+      <c r="W31" s="8"/>
+    </row>
+    <row r="32" spans="1:25">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
-      <c r="U32" s="1"/>
-    </row>
-    <row r="33" spans="1:21">
+    </row>
+    <row r="33" spans="1:3">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
-      <c r="U33" s="1"/>
-    </row>
-    <row r="34" spans="1:21">
+    </row>
+    <row r="34" spans="1:3">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
-      <c r="U34" s="6"/>
-    </row>
-    <row r="35" spans="1:21">
+    </row>
+    <row r="35" spans="1:3">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
-      <c r="U35" s="8"/>
-    </row>
-    <row r="36" spans="1:21">
+    </row>
+    <row r="36" spans="1:3">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
     </row>
-    <row r="37" spans="1:21">
+    <row r="37" spans="1:3">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
     </row>
-    <row r="38" spans="1:21">
+    <row r="38" spans="1:3">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
     </row>
-    <row r="39" spans="1:21">
+    <row r="39" spans="1:3">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
     </row>
-    <row r="40" spans="1:21">
+    <row r="40" spans="1:3">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
     </row>
-    <row r="41" spans="1:21">
+    <row r="41" spans="1:3">
       <c r="A41" s="3"/>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
     </row>
-    <row r="42" spans="1:21">
+    <row r="42" spans="1:3">
       <c r="A42" s="3"/>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
     </row>
-    <row r="43" spans="1:21">
+    <row r="43" spans="1:3">
       <c r="A43" s="3"/>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
     </row>
-    <row r="44" spans="1:21">
+    <row r="44" spans="1:3">
       <c r="A44" s="3"/>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
     </row>
-    <row r="45" spans="1:21">
+    <row r="45" spans="1:3">
       <c r="A45" s="3"/>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
     </row>
-    <row r="46" spans="1:21">
+    <row r="46" spans="1:3">
       <c r="A46" s="3"/>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
     </row>
-    <row r="47" spans="1:21">
+    <row r="47" spans="1:3">
       <c r="A47" s="3"/>
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
     </row>
-    <row r="48" spans="1:21">
+    <row r="48" spans="1:3">
       <c r="A48" s="3"/>
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
@@ -27040,26 +27055,6 @@
       <c r="A4823" s="3"/>
       <c r="B4823" s="3"/>
       <c r="C4823" s="3"/>
-    </row>
-    <row r="4824" spans="1:3">
-      <c r="A4824" s="3"/>
-      <c r="B4824" s="3"/>
-      <c r="C4824" s="3"/>
-    </row>
-    <row r="4825" spans="1:3">
-      <c r="A4825" s="3"/>
-      <c r="B4825" s="3"/>
-      <c r="C4825" s="3"/>
-    </row>
-    <row r="4826" spans="1:3">
-      <c r="A4826" s="3"/>
-      <c r="B4826" s="3"/>
-      <c r="C4826" s="3"/>
-    </row>
-    <row r="4827" spans="1:3">
-      <c r="A4827" s="3"/>
-      <c r="B4827" s="3"/>
-      <c r="C4827" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -27070,39 +27065,39 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:Y25"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="U20" sqref="U20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:Y2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="4.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.26953125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.1796875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.26953125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.7265625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.453125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.26953125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.26953125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.7265625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="17.54296875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.26953125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="22.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="1" customFormat="1" ht="16.5">
+    <row r="1" spans="1:25" s="1" customFormat="1" ht="16.5">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -27113,212 +27108,255 @@
         <v>3</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="K1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="L1" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y1" s="8" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" ht="16.5">
+      <c r="B2" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I2" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="K2" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="L2" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="M2" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="N2" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="O2" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="P2" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q2" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="R2" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="S2" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="T2" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="U2" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="V2" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="W2" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="X2" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y2" s="8" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" ht="15">
+      <c r="H3" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="T3" s="8"/>
+      <c r="V3" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="W3" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" ht="15">
+      <c r="H4" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="V4" t="s">
+        <v>28</v>
+      </c>
+      <c r="W4" s="8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" ht="15">
+      <c r="H6" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="V6" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="W6" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="I1" s="1" t="s">
+    </row>
+    <row r="7" spans="1:25" ht="15">
+      <c r="H7" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="V7" t="s">
+        <v>31</v>
+      </c>
+      <c r="W7" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" ht="15">
+      <c r="W9" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="J1" s="7" t="s">
+    </row>
+    <row r="10" spans="1:25">
+      <c r="W10" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" ht="15">
+      <c r="W12" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="K1" s="7" t="s">
+    </row>
+    <row r="13" spans="1:25">
+      <c r="W13" t="s">
         <v>36</v>
       </c>
-      <c r="L1" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="M1" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="P1" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="R1" s="1" t="s">
+    </row>
+    <row r="15" spans="1:25" ht="15">
+      <c r="W15" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="S1" s="1" t="s">
+    </row>
+    <row r="16" spans="1:25" ht="15.5">
+      <c r="W16" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="T1" s="1" t="s">
+    </row>
+    <row r="18" spans="23:23" ht="15">
+      <c r="W18" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="U1" s="1" t="s">
+    </row>
+    <row r="19" spans="23:23" ht="19">
+      <c r="W19" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="V1" s="8" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22">
-      <c r="B2" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="L2" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="M2" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="N2" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="O2" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="P2" s="6" t="s">
+    </row>
+    <row r="21" spans="23:23" ht="15">
+      <c r="W21" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="22" spans="23:23">
+      <c r="W22" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="Q2" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="R2" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="S2" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="T2" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="U2" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="V2" s="6" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22">
-      <c r="H3" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="T3" s="8"/>
-    </row>
-    <row r="4" spans="1:22">
-      <c r="H4" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="T4" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="U4" s="6" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22">
-      <c r="T5" t="s">
-        <v>72</v>
-      </c>
-      <c r="U5" s="8" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22">
-      <c r="T7" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="U7" s="6" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22">
-      <c r="T8" t="s">
-        <v>75</v>
-      </c>
-      <c r="U8" s="8" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22">
-      <c r="U10" s="6" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22">
-      <c r="U11" s="8" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22">
-      <c r="U13" s="6" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22">
-      <c r="U14" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22">
-      <c r="U16" s="6" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="17" spans="21:21" ht="15.75">
-      <c r="U17" s="15" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="19" spans="21:21">
-      <c r="U19" s="6" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="20" spans="21:21" ht="18.75">
-      <c r="U20" s="9" t="s">
-        <v>124</v>
+    </row>
+    <row r="24" spans="23:23" ht="15">
+      <c r="W24" s="6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="25" spans="23:23" ht="15.5">
+      <c r="W25" s="14" t="s">
+        <v>90</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>